--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/39.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/39.xlsx
@@ -479,13 +479,13 @@
         <v>-13.65183901609244</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.25452237112803</v>
+        <v>-14.46220557110633</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.5603663677678096</v>
+        <v>-0.7782746562654982</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.65818461123145</v>
+        <v>-10.98080513785726</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-13.25284445856536</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.45594745034798</v>
+        <v>-14.62817669423089</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5389080834102205</v>
+        <v>-0.736130533417982</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.41033422613473</v>
+        <v>-10.77687942879454</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-12.80914480842039</v>
       </c>
       <c r="E4" t="n">
-        <v>-14.76725622731854</v>
+        <v>-14.96714950710602</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.4397993508983541</v>
+        <v>-0.5333700393081704</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.980252077784032</v>
+        <v>-10.32787890283754</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-12.35264045175329</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.22739830299385</v>
+        <v>-15.44741445224905</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3857412324648672</v>
+        <v>-0.5376643146402565</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.764111250169977</v>
+        <v>-10.13578863554374</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-11.86743675040126</v>
       </c>
       <c r="E6" t="n">
-        <v>-15.68159647317901</v>
+        <v>-15.96123496957544</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3564799356136095</v>
+        <v>-0.4763268758267699</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.572701782623941</v>
+        <v>-9.882085991076771</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-11.36553298677036</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.16365506381136</v>
+        <v>-16.48920826627372</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3785011889933927</v>
+        <v>-0.4777408445336763</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.428620989850746</v>
+        <v>-9.765132449791631</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-10.84701364488849</v>
       </c>
       <c r="E8" t="n">
-        <v>-16.67060212214584</v>
+        <v>-17.0353144024078</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1570056095170711</v>
+        <v>-0.2591255716825344</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.231228339906043</v>
+        <v>-9.5305183828679</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-10.30209962129461</v>
       </c>
       <c r="E9" t="n">
-        <v>-17.28468349463416</v>
+        <v>-17.66110029363662</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01151851266162686</v>
+        <v>-0.1605405312843371</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.242278243504458</v>
+        <v>-9.490743966834737</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-9.724249200899006</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.70198755541133</v>
+        <v>-18.09562073265067</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1571965663815128</v>
+        <v>0.0282635679961945</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.944978230574543</v>
+        <v>-9.237565014481438</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-9.120673517566402</v>
       </c>
       <c r="E11" t="n">
-        <v>-18.24351138555081</v>
+        <v>-18.71514850312115</v>
       </c>
       <c r="F11" t="n">
-        <v>0.289481194294313</v>
+        <v>0.2206549582553591</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.864146352829726</v>
+        <v>-9.101797834012737</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-8.488934650920296</v>
       </c>
       <c r="E12" t="n">
-        <v>-18.76599900735841</v>
+        <v>-19.24564861426789</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3553092929825117</v>
+        <v>0.2370857983217253</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.356230464084964</v>
+        <v>-8.585437409935063</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-7.826817002703968</v>
       </c>
       <c r="E13" t="n">
-        <v>-19.52929335533388</v>
+        <v>-20.01635320565178</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4909193658171103</v>
+        <v>0.3978461849152797</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.768242051160204</v>
+        <v>-8.031056938405014</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-7.156764859514969</v>
       </c>
       <c r="E14" t="n">
-        <v>-20.35913587865385</v>
+        <v>-20.85155048083401</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7219854186707336</v>
+        <v>0.6387052802945141</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.201135861267998</v>
+        <v>-7.538013905688452</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-6.488249509861526</v>
       </c>
       <c r="E15" t="n">
-        <v>-21.16685241017129</v>
+        <v>-21.68543852573206</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8052524647441115</v>
+        <v>0.7130695604355183</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.649360758003453</v>
+        <v>-6.971261207972971</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-5.825070175238875</v>
       </c>
       <c r="E16" t="n">
-        <v>-22.07052242921575</v>
+        <v>-22.59790657228616</v>
       </c>
       <c r="F16" t="n">
-        <v>1.059072939936655</v>
+        <v>0.9877198894492477</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.16131898497243</v>
+        <v>-6.545551888771406</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-5.184257813295154</v>
       </c>
       <c r="E17" t="n">
-        <v>-22.70208202599778</v>
+        <v>-23.21281275985351</v>
       </c>
       <c r="F17" t="n">
-        <v>1.230320261106432</v>
+        <v>1.148859952825212</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.038552461225565</v>
+        <v>-6.433547237960441</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-4.573088737018963</v>
       </c>
       <c r="E18" t="n">
-        <v>-23.49052668773221</v>
+        <v>-24.04340154443545</v>
       </c>
       <c r="F18" t="n">
-        <v>1.557405263001274</v>
+        <v>1.459631945379264</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.619206001205079</v>
+        <v>-5.95425112322769</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-3.990459871834996</v>
       </c>
       <c r="E19" t="n">
-        <v>-24.28617211602958</v>
+        <v>-24.83163672932442</v>
       </c>
       <c r="F19" t="n">
-        <v>1.80335726418594</v>
+        <v>1.689480414068607</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.382889934911923</v>
+        <v>-5.759476933851332</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.441727963103367</v>
       </c>
       <c r="E20" t="n">
-        <v>-25.04870711044023</v>
+        <v>-25.6228307746556</v>
       </c>
       <c r="F20" t="n">
-        <v>2.015347831799168</v>
+        <v>1.880444743318023</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.144033961867473</v>
+        <v>-5.526460127874292</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-2.931276421963754</v>
       </c>
       <c r="E21" t="n">
-        <v>-25.62493863541312</v>
+        <v>-26.18657224271749</v>
       </c>
       <c r="F21" t="n">
-        <v>2.376119328905772</v>
+        <v>2.207280991458873</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.884963473235397</v>
+        <v>-5.245800431856209</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-2.457196562153846</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.20605358934598</v>
+        <v>-26.79917418498469</v>
       </c>
       <c r="F22" t="n">
-        <v>2.655037748645904</v>
+        <v>2.445770380023755</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.572384742889188</v>
+        <v>-4.82627067959594</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.019734026530624</v>
       </c>
       <c r="E23" t="n">
-        <v>-26.70744951127556</v>
+        <v>-27.30855641164773</v>
       </c>
       <c r="F23" t="n">
-        <v>2.854302597896975</v>
+        <v>2.662107592180436</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.42867053459556</v>
+        <v>-4.715902566640189</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-1.624958204150849</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.91835341775293</v>
+        <v>-27.53699091163016</v>
       </c>
       <c r="F24" t="n">
-        <v>2.96713206378697</v>
+        <v>2.697273517613313</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.237850220677403</v>
+        <v>-4.516912655748794</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-1.271590913315831</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.23982182172866</v>
+        <v>-27.87453666349555</v>
       </c>
       <c r="F25" t="n">
-        <v>3.275560534132353</v>
+        <v>3.022381581779054</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.986582744538997</v>
+        <v>-4.297511844727149</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-0.9546614206032843</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.20760166443518</v>
+        <v>-27.85550045516367</v>
       </c>
       <c r="F26" t="n">
-        <v>3.342802601527458</v>
+        <v>3.040894097997255</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.953315203018171</v>
+        <v>-4.342929043285096</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-0.6758992181396973</v>
       </c>
       <c r="E27" t="n">
-        <v>-27.13673302915291</v>
+        <v>-27.76105258246346</v>
       </c>
       <c r="F27" t="n">
-        <v>3.353616843674724</v>
+        <v>3.050242002226247</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.883088090575152</v>
+        <v>-4.21613009026298</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-0.4304082164713675</v>
       </c>
       <c r="E28" t="n">
-        <v>-27.05719728938943</v>
+        <v>-27.67722256736789</v>
       </c>
       <c r="F28" t="n">
-        <v>3.431568414794361</v>
+        <v>3.170403157707609</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.894308194110511</v>
+        <v>-4.274901437719488</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-0.2123993893142835</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.91820940242167</v>
+        <v>-27.58134763365793</v>
       </c>
       <c r="F29" t="n">
-        <v>3.435548474858245</v>
+        <v>3.164092667737897</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.817521837943788</v>
+        <v>-4.201060849692153</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-0.0203151874891355</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.80139987646778</v>
+        <v>-27.42204049267981</v>
       </c>
       <c r="F30" t="n">
-        <v>3.410751653276016</v>
+        <v>3.1610814380843</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.773872100269473</v>
+        <v>-4.139788872392875</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.1489443160613941</v>
       </c>
       <c r="E31" t="n">
-        <v>-26.40183588604115</v>
+        <v>-27.04343727910278</v>
       </c>
       <c r="F31" t="n">
-        <v>3.305018215526236</v>
+        <v>3.039532498501715</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.952084526551048</v>
+        <v>-4.330936493882075</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.2984720752742459</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.07155636225292</v>
+        <v>-26.74384611317556</v>
       </c>
       <c r="F32" t="n">
-        <v>3.263332323278181</v>
+        <v>3.000465066822005</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.050564828526512</v>
+        <v>-4.487310959023652</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.4288572211379456</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.65143745636477</v>
+        <v>-26.2782576395181</v>
       </c>
       <c r="F33" t="n">
-        <v>3.149534026977898</v>
+        <v>2.932594568890497</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.197146251142477</v>
+        <v>-4.666466031109831</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.5388838439498839</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.19226421109976</v>
+        <v>-25.80855818276833</v>
       </c>
       <c r="F34" t="n">
-        <v>3.071477717435527</v>
+        <v>2.882843818091938</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.12025515655302</v>
+        <v>-4.593738288824043</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.6272298262382143</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.83960994175503</v>
+        <v>-25.429234892535</v>
       </c>
       <c r="F35" t="n">
-        <v>2.827882330762372</v>
+        <v>2.679939308650867</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.230793469445713</v>
+        <v>-4.765011794599503</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.691620558870524</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.12990238931074</v>
+        <v>-24.68413884550953</v>
       </c>
       <c r="F36" t="n">
-        <v>2.71075858954029</v>
+        <v>2.585910389641591</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.558912763265051</v>
+        <v>-5.111748343059777</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.7291767872144846</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.69822298001335</v>
+        <v>-24.22717819942476</v>
       </c>
       <c r="F37" t="n">
-        <v>2.55496018572375</v>
+        <v>2.413615684244475</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.651527713567422</v>
+        <v>-5.238887695955778</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7388557038395382</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.32280119602685</v>
+        <v>-23.83689665171291</v>
       </c>
       <c r="F38" t="n">
-        <v>2.50413586609217</v>
+        <v>2.388190432125843</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.763584733589755</v>
+        <v>-5.351677884937248</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7212134032721954</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.84985484817234</v>
+        <v>-23.38019785168498</v>
       </c>
       <c r="F39" t="n">
-        <v>2.441292812451884</v>
+        <v>2.218776033353908</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.702286571684794</v>
+        <v>-5.288559892937287</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6774213645603135</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.49147924248577</v>
+        <v>-23.00637332864518</v>
       </c>
       <c r="F40" t="n">
-        <v>2.441607027720086</v>
+        <v>2.275360966235848</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.751984953271986</v>
+        <v>-5.359467805128076</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6099984207346617</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.96671355998371</v>
+        <v>-22.46617182109271</v>
       </c>
       <c r="F41" t="n">
-        <v>2.506073526912745</v>
+        <v>2.23388455083326</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.696198650863391</v>
+        <v>-5.349596208785414</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5224901237611556</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.35386286396251</v>
+        <v>-21.86084919920551</v>
       </c>
       <c r="F42" t="n">
-        <v>2.644642460189574</v>
+        <v>2.409138116672605</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.707235462158966</v>
+        <v>-5.349426008848472</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.418725770737076</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.69856692212844</v>
+        <v>-21.11554367533457</v>
       </c>
       <c r="F43" t="n">
-        <v>2.747521775919857</v>
+        <v>2.522622197704687</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.693030313575694</v>
+        <v>-5.30534422518038</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.30324266025143</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.44005940251856</v>
+        <v>-20.88950506677217</v>
       </c>
       <c r="F44" t="n">
-        <v>2.701148839254464</v>
+        <v>2.456113299268718</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.780971311763567</v>
+        <v>-5.406416803118505</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1811615776387066</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.00642924009775</v>
+        <v>-20.43105189816345</v>
       </c>
       <c r="F45" t="n">
-        <v>2.776717611256906</v>
+        <v>2.514557339154183</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.76270754929936</v>
+        <v>-5.385377472451851</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.05685958566263347</v>
       </c>
       <c r="E46" t="n">
-        <v>-19.64252868261197</v>
+        <v>-20.04235451909544</v>
       </c>
       <c r="F46" t="n">
-        <v>2.828275099847624</v>
+        <v>2.649250950789861</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.859368021179823</v>
+        <v>-5.450249833032604</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.06596773718477367</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.16129490705865</v>
+        <v>-19.55018867066928</v>
       </c>
       <c r="F47" t="n">
-        <v>2.848358692406831</v>
+        <v>2.564962705094829</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.168123799096249</v>
+        <v>-5.744944477697016</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.18496743828494</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.70476630696766</v>
+        <v>-19.04409261201952</v>
       </c>
       <c r="F48" t="n">
-        <v>2.818403503504962</v>
+        <v>2.581930329577706</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.292107907007395</v>
+        <v>-5.824480217460501</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.2994537594868308</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.20634233778315</v>
+        <v>-18.46088288963199</v>
       </c>
       <c r="F49" t="n">
-        <v>2.835554420227623</v>
+        <v>2.55192277146447</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.559989515451952</v>
+        <v>-6.17269619614189</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.4096456408877717</v>
       </c>
       <c r="E50" t="n">
-        <v>-17.7184183954777</v>
+        <v>-17.94173380504902</v>
       </c>
       <c r="F50" t="n">
-        <v>2.891327630333376</v>
+        <v>2.608455335135043</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.640075131934791</v>
+        <v>-6.178666286237717</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.5162620046009986</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.02956688146028</v>
+        <v>-17.21833170383229</v>
       </c>
       <c r="F51" t="n">
-        <v>2.865064470832874</v>
+        <v>2.613613702454683</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.877464767060967</v>
+        <v>-6.487526802576877</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.6202087122161468</v>
       </c>
       <c r="E52" t="n">
-        <v>-16.65030905274116</v>
+        <v>-16.82890115580515</v>
       </c>
       <c r="F52" t="n">
-        <v>2.745138976802663</v>
+        <v>2.453573392517423</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.99088338657884</v>
+        <v>-6.462428858029288</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.7234565820190401</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.2185772742324</v>
+        <v>-16.35790556107405</v>
       </c>
       <c r="F53" t="n">
-        <v>2.81497332016043</v>
+        <v>2.541056160105837</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.052325563815061</v>
+        <v>-6.545434058045831</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.8279942253326656</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.93448739486979</v>
+        <v>-16.05439979659716</v>
       </c>
       <c r="F54" t="n">
-        <v>2.567293135000656</v>
+        <v>2.283216347940884</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.307193423234942</v>
+        <v>-6.845365623846933</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.9340727583642658</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.57599395845765</v>
+        <v>-15.63485695203405</v>
       </c>
       <c r="F55" t="n">
-        <v>2.422073311880231</v>
+        <v>2.232103997646785</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.506445180183171</v>
+        <v>-6.987207632834194</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-1.043670873485644</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.17671799869353</v>
+        <v>-15.25506233889841</v>
       </c>
       <c r="F56" t="n">
-        <v>2.345902293947068</v>
+        <v>2.103720875980819</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.695314740977912</v>
+        <v>-7.168509842586417</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-1.157623735740731</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.6363070142956</v>
+        <v>-14.6707921399807</v>
       </c>
       <c r="F57" t="n">
-        <v>2.300314895452178</v>
+        <v>2.043182067640678</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.970043623808691</v>
+        <v>-7.460730042013743</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-1.274310984079664</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.38603455317316</v>
+        <v>-14.41977341759629</v>
       </c>
       <c r="F58" t="n">
-        <v>2.119824408476143</v>
+        <v>1.886964710133203</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.930622699952254</v>
+        <v>-7.476362251606763</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-1.393998663515576</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.0029668643271</v>
+        <v>-14.04079052723685</v>
       </c>
       <c r="F59" t="n">
-        <v>2.173057711830601</v>
+        <v>1.922471035439964</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.072765831904874</v>
+        <v>-7.604954850118196</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-1.517001640163841</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.90216922474865</v>
+        <v>-13.95465626684113</v>
       </c>
       <c r="F60" t="n">
-        <v>1.990603379428306</v>
+        <v>1.747636423291554</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.027191525712825</v>
+        <v>-7.550333762662516</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-1.641542939768973</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.58342401976399</v>
+        <v>-13.6658531584555</v>
       </c>
       <c r="F61" t="n">
-        <v>1.874212807165361</v>
+        <v>1.645490276520407</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.350597590509143</v>
+        <v>-7.801352485046929</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-1.766442726862612</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.27534904159533</v>
+        <v>-13.34332427794957</v>
       </c>
       <c r="F62" t="n">
-        <v>1.798146527654933</v>
+        <v>1.593592388055805</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.4202093647186</v>
+        <v>-7.957177073469153</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-1.892874632216065</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.93510627534456</v>
+        <v>-12.9372534130106</v>
       </c>
       <c r="F63" t="n">
-        <v>1.727317169281195</v>
+        <v>1.537897731767102</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.522512619123848</v>
+        <v>-8.009690300167316</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-2.020067275446105</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.70119919277428</v>
+        <v>-12.73975602464316</v>
       </c>
       <c r="F64" t="n">
-        <v>1.615377979984437</v>
+        <v>1.434913677614085</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.705412089822761</v>
+        <v>-8.166706288148138</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-2.145619688188849</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.49085825531911</v>
+        <v>-12.50904346396626</v>
       </c>
       <c r="F65" t="n">
-        <v>1.545596005838037</v>
+        <v>1.40082132101423</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.936334127345125</v>
+        <v>-8.386277299106725</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-2.271747602007369</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.25260452820538</v>
+        <v>-12.27336892051235</v>
       </c>
       <c r="F66" t="n">
-        <v>1.475814031691637</v>
+        <v>1.307839786232292</v>
       </c>
       <c r="G66" t="n">
-        <v>-8.046021440553107</v>
+        <v>-8.44024377142032</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-2.398969731034662</v>
       </c>
       <c r="E67" t="n">
-        <v>-12.07629048583585</v>
+        <v>-12.08660722047513</v>
       </c>
       <c r="F67" t="n">
-        <v>1.514776724948614</v>
+        <v>1.331615408192866</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.999425934739404</v>
+        <v>-8.391933173934351</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-2.524117618017729</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.9812665518106</v>
+        <v>-11.98181642852995</v>
       </c>
       <c r="F68" t="n">
-        <v>1.383696588897253</v>
+        <v>1.227780354355137</v>
       </c>
       <c r="G68" t="n">
-        <v>-8.009651023258792</v>
+        <v>-8.374062180555395</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-2.6495549671486</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.84001369645122</v>
+        <v>-11.85296198396169</v>
       </c>
       <c r="F69" t="n">
-        <v>1.263993664015351</v>
+        <v>1.069245659244676</v>
       </c>
       <c r="G69" t="n">
-        <v>-8.072624999927493</v>
+        <v>-8.389183790337588</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-2.775718283820774</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.73452901245543</v>
+        <v>-11.77930468817414</v>
       </c>
       <c r="F70" t="n">
-        <v>1.326692702324377</v>
+        <v>1.182428617311398</v>
       </c>
       <c r="G70" t="n">
-        <v>-8.015319990389258</v>
+        <v>-8.305118113790865</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-2.898757695150282</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.47352086300278</v>
+        <v>-11.54322428333213</v>
       </c>
       <c r="F71" t="n">
-        <v>1.261820341743625</v>
+        <v>1.111363597486509</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.872378227963294</v>
+        <v>-8.136554714703642</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-3.017989251350137</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.42473894261451</v>
+        <v>-11.51760264667087</v>
       </c>
       <c r="F72" t="n">
-        <v>1.301764957713731</v>
+        <v>1.09756431029133</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.871147551496171</v>
+        <v>-8.117165014195045</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-3.133274396223315</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.40536233440876</v>
+        <v>-11.49369610168188</v>
       </c>
       <c r="F73" t="n">
-        <v>1.264923217517114</v>
+        <v>1.021406384661009</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.757938408823766</v>
+        <v>-8.014010760105085</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-3.240727134023677</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.5978715553935</v>
+        <v>-11.68132189370666</v>
       </c>
       <c r="F74" t="n">
-        <v>1.310196400743803</v>
+        <v>1.087653437040143</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.64025169857949</v>
+        <v>-7.889241114023436</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-3.336452295201804</v>
       </c>
       <c r="E75" t="n">
-        <v>-11.72637250778504</v>
+        <v>-11.82647625531288</v>
       </c>
       <c r="F75" t="n">
-        <v>1.246214316756287</v>
+        <v>1.022113369014462</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.498658443346223</v>
+        <v>-7.694270540104452</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.421029153815556</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.06150927592754</v>
+        <v>-12.16810680566488</v>
       </c>
       <c r="F76" t="n">
-        <v>1.268222477833229</v>
+        <v>1.024352152800397</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.30620159157285</v>
+        <v>-7.535487091239998</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.491554945553308</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.66397777579525</v>
+        <v>-12.71150283511072</v>
       </c>
       <c r="F77" t="n">
-        <v>1.241134503253698</v>
+        <v>0.9964917323532042</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.129730441569224</v>
+        <v>-7.371754751901372</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.542911745583568</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.19357451804591</v>
+        <v>-13.24674235988616</v>
       </c>
       <c r="F78" t="n">
-        <v>1.265996786350135</v>
+        <v>1.008890143144319</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.995233214476172</v>
+        <v>-7.229624712251594</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.577426099688206</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.69546794748348</v>
+        <v>-13.75908344699143</v>
       </c>
       <c r="F79" t="n">
-        <v>1.310432062194953</v>
+        <v>0.9701238344299679</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.807253930274669</v>
+        <v>-7.03867347530502</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.595715019280051</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.24463768248252</v>
+        <v>-14.29204491107241</v>
       </c>
       <c r="F80" t="n">
-        <v>1.331013162262147</v>
+        <v>1.101033770544387</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.552412255460471</v>
+        <v>-6.833294520626862</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.595353908716582</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.01623255045965</v>
+        <v>-15.04868836920429</v>
       </c>
       <c r="F81" t="n">
-        <v>1.371887331734016</v>
+        <v>1.052880280692518</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.437880790201052</v>
+        <v>-6.729642759028917</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-3.581821221774652</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.77398885433307</v>
+        <v>-15.80330252039569</v>
       </c>
       <c r="F82" t="n">
-        <v>1.404722827261065</v>
+        <v>1.07852810195946</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.346234670308969</v>
+        <v>-6.61824035414867</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-3.559392892190038</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.63759642668185</v>
+        <v>-16.63025164478764</v>
       </c>
       <c r="F83" t="n">
-        <v>1.35819278296157</v>
+        <v>1.012333418791693</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.086810689500167</v>
+        <v>-6.411997307482959</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.52809546900258</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.7128017975586</v>
+        <v>-17.70336224720971</v>
       </c>
       <c r="F84" t="n">
-        <v>1.452143148153797</v>
+        <v>1.091751327829603</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.90342680359611</v>
+        <v>-6.233012435333722</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.490907820732381</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.52565051179</v>
+        <v>-18.5398949372818</v>
       </c>
       <c r="F85" t="n">
-        <v>1.436589492377826</v>
+        <v>1.07192958132723</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.694774773207522</v>
+        <v>-6.011032440652257</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.451917848199527</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.5988920372405</v>
+        <v>-19.56832151010507</v>
       </c>
       <c r="F86" t="n">
-        <v>1.441695490486099</v>
+        <v>1.102565569976869</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.400734743685196</v>
+        <v>-5.722268609175146</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.410537025881807</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.66800948729585</v>
+        <v>-20.62824816356553</v>
       </c>
       <c r="F87" t="n">
-        <v>1.468796557368472</v>
+        <v>1.138726510425716</v>
       </c>
       <c r="G87" t="n">
-        <v>-5.120232155301215</v>
+        <v>-5.393625623242139</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.365250628057884</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.02992319810356</v>
+        <v>-21.96814062099346</v>
       </c>
       <c r="F88" t="n">
-        <v>1.521139584129693</v>
+        <v>1.203245378829742</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.832031292846299</v>
+        <v>-5.187644422633262</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.320021964950142</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.49584216268595</v>
+        <v>-23.42190992853872</v>
       </c>
       <c r="F89" t="n">
-        <v>1.315747537148694</v>
+        <v>1.029314135577411</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.478787869873688</v>
+        <v>-4.758792950749683</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-3.273465708218082</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.99319574639132</v>
+        <v>-24.91685452852121</v>
       </c>
       <c r="F90" t="n">
-        <v>1.172177344186326</v>
+        <v>0.892643586212633</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.285349095387185</v>
+        <v>-4.619647956147818</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-3.220795354088155</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.61694242173071</v>
+        <v>-26.40086705563086</v>
       </c>
       <c r="F91" t="n">
-        <v>1.0066251747527</v>
+        <v>0.7204274346325683</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.242131403706647</v>
+        <v>-4.590779428381813</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.161677317704815</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.32119366724387</v>
+        <v>-28.07995489508223</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9285819575131711</v>
+        <v>0.6770133584094047</v>
       </c>
       <c r="G92" t="n">
-        <v>-4.004637030157737</v>
+        <v>-4.330753201642291</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-3.090683488297146</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.2221960398625</v>
+        <v>-30.02857397313621</v>
       </c>
       <c r="F93" t="n">
-        <v>0.8156346608976003</v>
+        <v>0.5713846590823587</v>
       </c>
       <c r="G93" t="n">
-        <v>-4.055539903606368</v>
+        <v>-4.402315728975166</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.998474107171931</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.36976575189935</v>
+        <v>-32.17361687072461</v>
       </c>
       <c r="F94" t="n">
-        <v>0.7427629032805529</v>
+        <v>0.5747362886098406</v>
       </c>
       <c r="G94" t="n">
-        <v>-4.088231383802158</v>
+        <v>-4.422490967654266</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.879648844107283</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.46224305357822</v>
+        <v>-34.31868595291869</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3297923947439876</v>
+        <v>0.1417214644225926</v>
       </c>
       <c r="G95" t="n">
-        <v>-4.102763839956474</v>
+        <v>-4.480306577003328</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-2.726049358409438</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.48489910420216</v>
+        <v>-36.35486635237814</v>
       </c>
       <c r="F96" t="n">
-        <v>0.06726553816169646</v>
+        <v>-0.01732383049869567</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.280007435827761</v>
+        <v>-4.664764031740407</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-2.533263438891942</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.62930047895131</v>
+        <v>-38.5481543859383</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.254988403984549</v>
+        <v>-0.3445135708162718</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.373263908969376</v>
+        <v>-4.75990579649123</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-2.293499896276514</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.98151597670719</v>
+        <v>-40.92562493587586</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.5262085496537462</v>
+        <v>-0.6269930969293535</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.589352367372064</v>
+        <v>-4.985748020511005</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-2.017182779242531</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.40297666419295</v>
+        <v>-43.34730819250993</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.43043835436652</v>
+        <v>-0.5023412815732796</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.907521511031692</v>
+        <v>-5.335299414082249</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-1.696686977860826</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.8826064532045</v>
+        <v>-45.80263866744724</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.5670434422170898</v>
+        <v>-0.6367861394549645</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.147032099218229</v>
+        <v>-5.566444020752923</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-1.357855786387826</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.29058206876329</v>
+        <v>-48.21442414313297</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.5975223232326281</v>
+        <v>-0.6885138279826243</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.50559099714458</v>
+        <v>-5.92989943994208</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.9825385038478118</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.57897259016574</v>
+        <v>-50.52237456498096</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.7241510763178026</v>
+        <v>-0.8086095219497775</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.815917851402013</v>
+        <v>-6.238890879309657</v>
       </c>
     </row>
   </sheetData>
